--- a/data_output/prism_passive/all_passive_out_length_GMtend_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMtend_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>174.88390008389493</v>
+        <v>174.88390011570345</v>
       </c>
       <c r="C2">
-        <v>177.59582028553015</v>
+        <v>177.59582030149369</v>
       </c>
       <c r="D2">
-        <v>170.91628541057727</v>
+        <v>170.91628544338528</v>
       </c>
       <c r="E2">
-        <v>214.32431906549755</v>
+        <v>214.32431909836123</v>
       </c>
       <c r="F2">
-        <v>198.39409454584603</v>
+        <v>198.39409456530797</v>
       </c>
       <c r="G2">
-        <v>184.30682834894134</v>
+        <v>184.30682837059743</v>
       </c>
       <c r="H2">
-        <v>181.71975859103617</v>
+        <v>181.71975861099401</v>
       </c>
       <c r="I2">
-        <v>182.08042563636627</v>
+        <v>182.08042566108753</v>
       </c>
       <c r="J2">
-        <v>166.47517365785399</v>
+        <v>166.47517367534863</v>
       </c>
       <c r="K2">
-        <v>166.85381492528674</v>
+        <v>166.85381494304789</v>
       </c>
       <c r="L2">
-        <v>186.95801725074975</v>
+        <v>186.95801727497704</v>
       </c>
       <c r="M2">
-        <v>175.57848713165481</v>
+        <v>175.57848717691729</v>
       </c>
       <c r="N2">
-        <v>234.40574968973684</v>
+        <v>234.40574972987804</v>
       </c>
       <c r="O2">
-        <v>172.98601572376</v>
+        <v>172.98601574991676</v>
       </c>
       <c r="P2">
-        <v>206.57652081305824</v>
+        <v>206.57652085732613</v>
       </c>
       <c r="Q2">
-        <v>188.68468560685227</v>
+        <v>188.68468564042803</v>
       </c>
       <c r="R2">
-        <v>222.92699407697859</v>
+        <v>222.92699410700871</v>
       </c>
       <c r="S2">
-        <v>193.85001366428978</v>
+        <v>193.85001364976438</v>
       </c>
       <c r="T2">
-        <v>200.70570258841354</v>
+        <v>200.70570263957313</v>
       </c>
       <c r="U2">
-        <v>164.3251848156969</v>
+        <v>164.32518483600114</v>
       </c>
       <c r="V2">
-        <v>196.59568937707479</v>
+        <v>196.59568939670734</v>
       </c>
       <c r="W2">
-        <v>223.00212734267043</v>
+        <v>223.00212736616965</v>
       </c>
       <c r="X2">
-        <v>157.87726090285148</v>
+        <v>157.8772609445341</v>
       </c>
       <c r="Y2">
-        <v>178.32847249428357</v>
+        <v>178.32847252483532</v>
       </c>
       <c r="Z2">
-        <v>162.84553961968371</v>
+        <v>162.84553964235826</v>
       </c>
       <c r="AA2">
-        <v>169.08432595027836</v>
+        <v>169.08432598132811</v>
       </c>
       <c r="AB2">
-        <v>168.77793642655658</v>
+        <v>168.77793646083299</v>
       </c>
       <c r="AC2">
-        <v>150.86217646113016</v>
+        <v>150.86217648071462</v>
       </c>
       <c r="AD2">
-        <v>189.70635972559543</v>
+        <v>189.70635975840804</v>
       </c>
       <c r="AE2">
-        <v>169.07394220608825</v>
+        <v>169.0739422202191</v>
       </c>
       <c r="AF2">
-        <v>174.61529459276181</v>
+        <v>174.61529462388424</v>
       </c>
       <c r="AG2">
-        <v>186.40180464229539</v>
+        <v>186.40180466735356</v>
       </c>
       <c r="AH2">
-        <v>179.60814479436118</v>
+        <v>179.60814483743542</v>
       </c>
       <c r="AI2">
-        <v>187.30071211780532</v>
+        <v>187.30071214999862</v>
       </c>
       <c r="AJ2">
-        <v>176.78585727386385</v>
+        <v>176.78585729567402</v>
       </c>
       <c r="AK2">
-        <v>184.47914022778252</v>
+        <v>184.47914025119451</v>
       </c>
       <c r="AL2">
-        <v>171.92826429892412</v>
+        <v>171.92826432745255</v>
       </c>
       <c r="AM2">
-        <v>233.87009903377654</v>
+        <v>233.87009906794606</v>
       </c>
       <c r="AN2">
-        <v>173.78653925009522</v>
+        <v>173.78653927819192</v>
       </c>
       <c r="AO2">
-        <v>195.20416252537177</v>
+        <v>195.204162569338</v>
       </c>
       <c r="AP2">
-        <v>192.99401082690406</v>
+        <v>192.99401085237935</v>
       </c>
       <c r="AQ2">
-        <v>221.42662783599781</v>
+        <v>221.42662787183104</v>
       </c>
       <c r="AR2">
-        <v>189.02701850027253</v>
+        <v>189.02701851503136</v>
       </c>
       <c r="AS2">
-        <v>203.14405803820867</v>
+        <v>203.14405806238301</v>
       </c>
       <c r="AT2">
-        <v>166.43014878666784</v>
+        <v>166.43014881999048</v>
       </c>
       <c r="AU2">
-        <v>199.98060748095111</v>
+        <v>199.98060750730426</v>
       </c>
       <c r="AV2">
-        <v>219.39583426553202</v>
+        <v>219.39583429462368</v>
       </c>
       <c r="AW2">
-        <v>154.67061403283495</v>
+        <v>154.67061406144006</v>
       </c>
       <c r="AX2">
-        <v>186.82159038974945</v>
+        <v>186.82159041883813</v>
       </c>
       <c r="AY2">
-        <v>171.70305191131754</v>
+        <v>171.70305193411443</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>169.50165029440777</v>
+        <v>169.50165031937425</v>
       </c>
       <c r="C3">
-        <v>166.24610165712744</v>
+        <v>166.24610167976533</v>
       </c>
       <c r="D3">
-        <v>142.49245680666681</v>
+        <v>142.49245683597144</v>
       </c>
       <c r="E3">
-        <v>213.33697245482088</v>
+        <v>213.33697253987205</v>
       </c>
       <c r="F3">
-        <v>184.38880583202013</v>
+        <v>184.38880584988718</v>
       </c>
       <c r="G3">
-        <v>175.91257814031502</v>
+        <v>175.91257815298013</v>
       </c>
       <c r="H3">
-        <v>183.89838389961906</v>
+        <v>183.89838394039708</v>
       </c>
       <c r="I3">
-        <v>175.96937516376141</v>
+        <v>175.96937518680258</v>
       </c>
       <c r="J3">
-        <v>168.66218766279727</v>
+        <v>168.66218769317996</v>
       </c>
       <c r="K3">
-        <v>181.18411574355395</v>
+        <v>181.1841157623833</v>
       </c>
       <c r="L3">
-        <v>178.72473417867266</v>
+        <v>178.72473419972647</v>
       </c>
       <c r="M3">
-        <v>181.03668837597806</v>
+        <v>181.03643088186104</v>
       </c>
       <c r="N3">
-        <v>214.81021699165146</v>
+        <v>214.8102170230153</v>
       </c>
       <c r="O3">
-        <v>171.66530785175723</v>
+        <v>171.66530788094812</v>
       </c>
       <c r="P3">
-        <v>180.528885408657</v>
+        <v>180.52888544031237</v>
       </c>
       <c r="Q3">
-        <v>186.39233280119271</v>
+        <v>186.39233283820445</v>
       </c>
       <c r="R3">
-        <v>226.61288970722057</v>
+        <v>226.6128897617138</v>
       </c>
       <c r="S3">
-        <v>187.15628178814197</v>
+        <v>187.1562818113747</v>
       </c>
       <c r="T3">
-        <v>223.95003476590637</v>
+        <v>223.95003478706914</v>
       </c>
       <c r="U3">
-        <v>166.567149035699</v>
+        <v>166.56714905757534</v>
       </c>
       <c r="V3">
-        <v>210.98190158451459</v>
+        <v>210.98190160715606</v>
       </c>
       <c r="W3">
-        <v>192.58916904595682</v>
+        <v>192.58916908595899</v>
       </c>
       <c r="X3">
-        <v>163.2419945039338</v>
+        <v>163.24199453159392</v>
       </c>
       <c r="Y3">
-        <v>174.9499287856959</v>
+        <v>174.94992880833703</v>
       </c>
       <c r="Z3">
-        <v>166.72711863026618</v>
+        <v>166.72711866023937</v>
       </c>
       <c r="AA3">
-        <v>160.55662406717349</v>
+        <v>160.55662410521981</v>
       </c>
       <c r="AB3">
-        <v>171.85427181255781</v>
+        <v>171.85427182758065</v>
       </c>
       <c r="AC3">
-        <v>139.10582804456075</v>
+        <v>139.10582806256593</v>
       </c>
       <c r="AD3">
-        <v>214.89725306692864</v>
+        <v>214.89725308999124</v>
       </c>
       <c r="AE3">
-        <v>174.1547992710702</v>
+        <v>174.15479929364878</v>
       </c>
       <c r="AF3">
-        <v>173.37724735898598</v>
+        <v>173.37724738334234</v>
       </c>
       <c r="AG3">
-        <v>177.67701361419486</v>
+        <v>177.67701363139685</v>
       </c>
       <c r="AH3">
-        <v>178.73054226555431</v>
+        <v>178.73054229826451</v>
       </c>
       <c r="AI3">
-        <v>161.81925592082345</v>
+        <v>161.81925592963341</v>
       </c>
       <c r="AJ3">
-        <v>176.13608494070257</v>
+        <v>176.13608495682084</v>
       </c>
       <c r="AK3">
-        <v>179.61803833618148</v>
+        <v>179.61803835862804</v>
       </c>
       <c r="AL3">
-        <v>172.10727760129112</v>
+        <v>172.10727764049165</v>
       </c>
       <c r="AM3">
-        <v>209.44538009545533</v>
+        <v>209.44538012402467</v>
       </c>
       <c r="AN3">
-        <v>176.88760674448972</v>
+        <v>176.8876067736812</v>
       </c>
       <c r="AO3">
-        <v>227.41125487902465</v>
+        <v>227.41125490643</v>
       </c>
       <c r="AP3">
-        <v>186.46176438053143</v>
+        <v>186.46176440664536</v>
       </c>
       <c r="AQ3">
-        <v>216.94829124624977</v>
+        <v>216.94829129003301</v>
       </c>
       <c r="AR3">
-        <v>180.93321222670707</v>
+        <v>180.93321224769107</v>
       </c>
       <c r="AS3">
-        <v>219.70688095257933</v>
+        <v>219.70688098374737</v>
       </c>
       <c r="AT3">
-        <v>165.61109675354393</v>
+        <v>165.61109678438316</v>
       </c>
       <c r="AU3">
-        <v>214.71273825086035</v>
+        <v>214.71273826871166</v>
       </c>
       <c r="AV3">
-        <v>192.98172339375421</v>
+        <v>192.98172342076052</v>
       </c>
       <c r="AW3">
-        <v>157.46828804781526</v>
+        <v>157.46828807071097</v>
       </c>
       <c r="AX3">
-        <v>151.71107163515097</v>
+        <v>151.71107166015676</v>
       </c>
       <c r="AY3">
-        <v>169.62695433891375</v>
+        <v>169.62695437027253</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_GMtend_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMtend_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>174.88390011570345</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>177.59582030149369</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>170.91628544338528</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>214.32431909836123</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>198.39409456530797</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>184.30682837059743</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>181.71975861099401</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>182.08042566108753</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>166.47517367534863</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>166.85381494304789</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>186.95801727497704</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>175.57848717691729</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>234.40574972987804</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>172.98601574991676</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>206.57652085732613</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>188.68468564042803</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>222.92699410700871</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>193.85001364976438</v>
@@ -588,55 +477,55 @@
         <v>162.84553964235826</v>
       </c>
       <c r="AA2">
-        <v>169.08432598132811</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>168.77793646083299</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>150.86217648071462</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>189.70635975840804</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>169.0739422202191</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>174.61529462388424</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>186.40180466735356</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>179.60814483743542</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>187.30071214999862</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>176.78585729567402</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>184.47914025119451</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>171.92826432745255</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>233.87009906794606</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>173.78653927819192</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>195.204162569338</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>192.99401085237935</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>221.42662787183104</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>189.02701851503136</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>169.50165031937425</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>166.24610167976533</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>142.49245683597144</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>213.33697253987205</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>184.38880584988718</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>175.91257815298013</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>183.89838394039708</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>175.96937518680258</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>168.66218769317996</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>181.1841157623833</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>178.72473419972647</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>181.03643088186104</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>214.8102170230153</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>171.66530788094812</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>180.52888544031237</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>186.39233283820445</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>226.6128897617138</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>187.1562818113747</v>
@@ -743,55 +629,55 @@
         <v>166.72711866023937</v>
       </c>
       <c r="AA3">
-        <v>160.55662410521981</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>171.85427182758065</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>139.10582806256593</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>214.89725308999124</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>174.15479929364878</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>173.37724738334234</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>177.67701363139685</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>178.73054229826451</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>161.81925592963341</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>176.13608495682084</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>179.61803835862804</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>172.10727764049165</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>209.44538012402467</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>176.8876067736812</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>227.41125490643</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>186.46176440664536</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>216.94829129003301</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>180.93321224769107</v>

--- a/data_output/prism_passive/all_passive_out_length_GMtend_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMtend_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>174.88390008389493</v>
+        <v>172.98601574991676</v>
       </c>
       <c r="C2">
-        <v>177.59582028553015</v>
+        <v>222.92699410700871</v>
       </c>
       <c r="D2">
-        <v>170.91628541057727</v>
+        <v>173.78653927819192</v>
       </c>
       <c r="E2">
-        <v>214.32431906549755</v>
+        <v>221.42662787183104</v>
       </c>
       <c r="F2">
         <v>198.39409454584603</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>169.50165029440777</v>
+        <v>171.66530788094812</v>
       </c>
       <c r="C3">
-        <v>166.24610165712744</v>
+        <v>226.6128897617138</v>
       </c>
       <c r="D3">
-        <v>142.49245680666681</v>
+        <v>176.8876067736812</v>
       </c>
       <c r="E3">
-        <v>213.33697245482088</v>
+        <v>217.0255034146733</v>
       </c>
       <c r="F3">
         <v>184.38880583202013</v>

--- a/data_output/prism_passive/all_passive_out_length_GMtend_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMtend_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>174.88390008389493</v>
+        <v>234.40574972987804</v>
       </c>
       <c r="C2">
-        <v>177.59582028553015</v>
+        <v>172.98601574991676</v>
       </c>
       <c r="D2">
-        <v>170.91628541057727</v>
+        <v>233.87009906794606</v>
       </c>
       <c r="E2">
-        <v>214.32431906549755</v>
+        <v>173.78653927819192</v>
       </c>
       <c r="F2">
         <v>198.39409454584603</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>169.50165029440777</v>
+        <v>214.8102170230153</v>
       </c>
       <c r="C3">
-        <v>166.24610165712744</v>
+        <v>171.66530788094812</v>
       </c>
       <c r="D3">
-        <v>142.49245680666681</v>
+        <v>209.44538012402467</v>
       </c>
       <c r="E3">
-        <v>213.33697245482088</v>
+        <v>176.8876067736812</v>
       </c>
       <c r="F3">
         <v>184.38880583202013</v>

--- a/data_output/prism_passive/all_passive_out_length_GMtend_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMtend_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>174.88390011570345</v>
+      </c>
+      <c r="C2">
+        <v>177.59582030149369</v>
+      </c>
+      <c r="D2">
+        <v>170.91628544338528</v>
+      </c>
+      <c r="E2">
+        <v>214.32431909836123</v>
+      </c>
+      <c r="F2">
+        <v>198.39409456530797</v>
+      </c>
+      <c r="G2">
+        <v>184.30682837059743</v>
+      </c>
+      <c r="H2">
+        <v>181.71975861099401</v>
+      </c>
+      <c r="I2">
+        <v>182.08042566108753</v>
+      </c>
+      <c r="J2">
+        <v>166.47517367534863</v>
+      </c>
+      <c r="K2">
+        <v>166.85381494304789</v>
+      </c>
+      <c r="L2">
+        <v>186.95801727497704</v>
+      </c>
+      <c r="M2">
+        <v>175.57848717691729</v>
+      </c>
+      <c r="N2">
         <v>234.40574972987804</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>172.98601574991676</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>206.57652085732613</v>
+      </c>
+      <c r="Q2">
+        <v>188.68468564042803</v>
+      </c>
+      <c r="R2">
+        <v>222.92699410700871</v>
+      </c>
+      <c r="S2">
+        <v>193.85001364976438</v>
+      </c>
+      <c r="T2">
+        <v>200.70570263957313</v>
+      </c>
+      <c r="U2">
+        <v>164.32518483600114</v>
+      </c>
+      <c r="V2">
+        <v>196.59568939670734</v>
+      </c>
+      <c r="W2">
+        <v>223.00212736616965</v>
+      </c>
+      <c r="X2">
+        <v>157.8772609445341</v>
+      </c>
+      <c r="Y2">
+        <v>178.32847252483532</v>
+      </c>
+      <c r="Z2">
+        <v>162.84553964235826</v>
+      </c>
+      <c r="AA2">
+        <v>169.08432598132811</v>
+      </c>
+      <c r="AB2">
+        <v>168.77793646083299</v>
+      </c>
+      <c r="AC2">
+        <v>150.86217648071462</v>
+      </c>
+      <c r="AD2">
+        <v>189.70635975840804</v>
+      </c>
+      <c r="AE2">
+        <v>169.0739422202191</v>
+      </c>
+      <c r="AF2">
+        <v>174.61529462388424</v>
+      </c>
+      <c r="AG2">
+        <v>186.40180466735356</v>
+      </c>
+      <c r="AH2">
+        <v>179.60814483743542</v>
+      </c>
+      <c r="AI2">
+        <v>187.30071214999862</v>
+      </c>
+      <c r="AJ2">
+        <v>176.78585729567402</v>
+      </c>
+      <c r="AK2">
+        <v>184.47914025119451</v>
+      </c>
+      <c r="AL2">
+        <v>171.92826432745255</v>
+      </c>
+      <c r="AM2">
         <v>233.87009906794606</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>173.78653927819192</v>
       </c>
-      <c r="F2">
-        <v>198.39409454584603</v>
-      </c>
-      <c r="G2">
-        <v>184.30682834894134</v>
-      </c>
-      <c r="H2">
-        <v>181.71975859103617</v>
-      </c>
-      <c r="I2">
-        <v>182.08042563636627</v>
-      </c>
-      <c r="J2">
-        <v>166.47517365785399</v>
-      </c>
-      <c r="K2">
-        <v>166.85381492528674</v>
-      </c>
-      <c r="L2">
-        <v>186.95801725074975</v>
-      </c>
-      <c r="M2">
-        <v>175.57848713165481</v>
-      </c>
-      <c r="N2">
-        <v>234.40574968973684</v>
-      </c>
-      <c r="O2">
-        <v>172.98601572376</v>
-      </c>
-      <c r="P2">
-        <v>206.57652081305824</v>
-      </c>
-      <c r="Q2">
-        <v>188.68468560685227</v>
-      </c>
-      <c r="R2">
-        <v>222.92699407697859</v>
-      </c>
-      <c r="S2">
-        <v>193.85001366428978</v>
-      </c>
-      <c r="T2">
-        <v>200.70570258841354</v>
-      </c>
-      <c r="U2">
-        <v>164.3251848156969</v>
-      </c>
-      <c r="V2">
-        <v>196.59568937707479</v>
-      </c>
-      <c r="W2">
-        <v>223.00212734267043</v>
-      </c>
-      <c r="X2">
-        <v>157.87726090285148</v>
-      </c>
-      <c r="Y2">
-        <v>178.32847249428357</v>
-      </c>
-      <c r="Z2">
-        <v>162.84553961968371</v>
-      </c>
-      <c r="AA2">
-        <v>169.08432595027836</v>
-      </c>
-      <c r="AB2">
-        <v>168.77793642655658</v>
-      </c>
-      <c r="AC2">
-        <v>150.86217646113016</v>
-      </c>
-      <c r="AD2">
-        <v>189.70635972559543</v>
-      </c>
-      <c r="AE2">
-        <v>169.07394220608825</v>
-      </c>
-      <c r="AF2">
-        <v>174.61529459276181</v>
-      </c>
-      <c r="AG2">
-        <v>186.40180464229539</v>
-      </c>
-      <c r="AH2">
-        <v>179.60814479436118</v>
-      </c>
-      <c r="AI2">
-        <v>187.30071211780532</v>
-      </c>
-      <c r="AJ2">
-        <v>176.78585727386385</v>
-      </c>
-      <c r="AK2">
-        <v>184.47914022778252</v>
-      </c>
-      <c r="AL2">
-        <v>171.92826429892412</v>
-      </c>
-      <c r="AM2">
-        <v>233.87009903377654</v>
-      </c>
-      <c r="AN2">
-        <v>173.78653925009522</v>
-      </c>
       <c r="AO2">
-        <v>195.20416252537177</v>
+        <v>195.204162569338</v>
       </c>
       <c r="AP2">
-        <v>192.59869287898721</v>
+        <v>192.59869291104869</v>
       </c>
       <c r="AQ2">
-        <v>221.42662783599781</v>
+        <v>221.42662787183104</v>
       </c>
       <c r="AR2">
-        <v>189.02701850027253</v>
+        <v>189.02701851503136</v>
       </c>
       <c r="AS2">
-        <v>203.14405803820867</v>
+        <v>203.14405806238301</v>
       </c>
       <c r="AT2">
-        <v>166.43014878666784</v>
+        <v>166.43014881999048</v>
       </c>
       <c r="AU2">
-        <v>199.98060748095111</v>
+        <v>199.98060750730426</v>
       </c>
       <c r="AV2">
-        <v>219.39583426553202</v>
+        <v>219.39583429462368</v>
       </c>
       <c r="AW2">
-        <v>154.67061403283495</v>
+        <v>154.67061406144006</v>
       </c>
       <c r="AX2">
-        <v>186.82159038974945</v>
+        <v>186.82159041883813</v>
       </c>
       <c r="AY2">
-        <v>171.70305191131754</v>
+        <v>171.70305193411443</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>169.50165031937425</v>
+      </c>
+      <c r="C3">
+        <v>166.24610167976533</v>
+      </c>
+      <c r="D3">
+        <v>142.49245683597144</v>
+      </c>
+      <c r="E3">
+        <v>213.33697253987205</v>
+      </c>
+      <c r="F3">
+        <v>184.38880584988718</v>
+      </c>
+      <c r="G3">
+        <v>175.91257815298013</v>
+      </c>
+      <c r="H3">
+        <v>183.89838394039708</v>
+      </c>
+      <c r="I3">
+        <v>175.96937518680258</v>
+      </c>
+      <c r="J3">
+        <v>168.66218769317996</v>
+      </c>
+      <c r="K3">
+        <v>181.1841157623833</v>
+      </c>
+      <c r="L3">
+        <v>178.72473419972647</v>
+      </c>
+      <c r="M3">
+        <v>181.03643088186104</v>
+      </c>
+      <c r="N3">
         <v>214.8102170230153</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>171.66530788094812</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>180.52888544031237</v>
+      </c>
+      <c r="Q3">
+        <v>186.39233283820445</v>
+      </c>
+      <c r="R3">
+        <v>226.6128897617138</v>
+      </c>
+      <c r="S3">
+        <v>187.1562818113747</v>
+      </c>
+      <c r="T3">
+        <v>223.95003478706914</v>
+      </c>
+      <c r="U3">
+        <v>166.56714905757534</v>
+      </c>
+      <c r="V3">
+        <v>210.98190160715606</v>
+      </c>
+      <c r="W3">
+        <v>192.58437383962251</v>
+      </c>
+      <c r="X3">
+        <v>163.24199453159392</v>
+      </c>
+      <c r="Y3">
+        <v>174.94992880833703</v>
+      </c>
+      <c r="Z3">
+        <v>166.72711866023937</v>
+      </c>
+      <c r="AA3">
+        <v>160.55662410521981</v>
+      </c>
+      <c r="AB3">
+        <v>171.85427182758065</v>
+      </c>
+      <c r="AC3">
+        <v>139.10582806256593</v>
+      </c>
+      <c r="AD3">
+        <v>214.89725308999124</v>
+      </c>
+      <c r="AE3">
+        <v>174.15479929364878</v>
+      </c>
+      <c r="AF3">
+        <v>173.37724738334234</v>
+      </c>
+      <c r="AG3">
+        <v>177.67701363139685</v>
+      </c>
+      <c r="AH3">
+        <v>178.85442613872013</v>
+      </c>
+      <c r="AI3">
+        <v>161.81925592963341</v>
+      </c>
+      <c r="AJ3">
+        <v>176.13608495682084</v>
+      </c>
+      <c r="AK3">
+        <v>179.61803835862804</v>
+      </c>
+      <c r="AL3">
+        <v>172.10727764049165</v>
+      </c>
+      <c r="AM3">
         <v>209.44538012402467</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>176.8876067736812</v>
       </c>
-      <c r="F3">
-        <v>184.38880583202013</v>
-      </c>
-      <c r="G3">
-        <v>175.91257814031502</v>
-      </c>
-      <c r="H3">
-        <v>183.89838389961906</v>
-      </c>
-      <c r="I3">
-        <v>175.96937516376141</v>
-      </c>
-      <c r="J3">
-        <v>168.66218766279727</v>
-      </c>
-      <c r="K3">
-        <v>181.18411574355395</v>
-      </c>
-      <c r="L3">
-        <v>178.72473417867266</v>
-      </c>
-      <c r="M3">
-        <v>181.03668837597806</v>
-      </c>
-      <c r="N3">
-        <v>214.81021699165146</v>
-      </c>
-      <c r="O3">
-        <v>171.66530785175723</v>
-      </c>
-      <c r="P3">
-        <v>180.528885408657</v>
-      </c>
-      <c r="Q3">
-        <v>186.39233280119271</v>
-      </c>
-      <c r="R3">
-        <v>226.61288970722057</v>
-      </c>
-      <c r="S3">
-        <v>187.15628178814197</v>
-      </c>
-      <c r="T3">
-        <v>223.95003476590637</v>
-      </c>
-      <c r="U3">
-        <v>166.567149035699</v>
-      </c>
-      <c r="V3">
-        <v>210.98190158451459</v>
-      </c>
-      <c r="W3">
-        <v>192.58437380633785</v>
-      </c>
-      <c r="X3">
-        <v>163.2419945039338</v>
-      </c>
-      <c r="Y3">
-        <v>174.9499287856959</v>
-      </c>
-      <c r="Z3">
-        <v>166.72711863026618</v>
-      </c>
-      <c r="AA3">
-        <v>160.55662406717349</v>
-      </c>
-      <c r="AB3">
-        <v>171.85427181255781</v>
-      </c>
-      <c r="AC3">
-        <v>139.10582804456075</v>
-      </c>
-      <c r="AD3">
-        <v>214.89725306692864</v>
-      </c>
-      <c r="AE3">
-        <v>174.1547992710702</v>
-      </c>
-      <c r="AF3">
-        <v>173.37724735898598</v>
-      </c>
-      <c r="AG3">
-        <v>177.67701361419486</v>
-      </c>
-      <c r="AH3">
-        <v>178.85442610884954</v>
-      </c>
-      <c r="AI3">
-        <v>161.81925592082345</v>
-      </c>
-      <c r="AJ3">
-        <v>176.13608494070257</v>
-      </c>
-      <c r="AK3">
-        <v>179.61803833618148</v>
-      </c>
-      <c r="AL3">
-        <v>172.10727760129112</v>
-      </c>
-      <c r="AM3">
-        <v>209.44538009545533</v>
-      </c>
-      <c r="AN3">
-        <v>176.88760674448972</v>
-      </c>
       <c r="AO3">
-        <v>227.41125487902465</v>
+        <v>227.41125490643</v>
       </c>
       <c r="AP3">
-        <v>186.46176438053143</v>
+        <v>186.46176440664536</v>
       </c>
       <c r="AQ3">
-        <v>217.02550337049212</v>
+        <v>217.0255034146733</v>
       </c>
       <c r="AR3">
-        <v>180.93321222670707</v>
+        <v>180.93321224769107</v>
       </c>
       <c r="AS3">
-        <v>219.70688095257933</v>
+        <v>219.70688098374737</v>
       </c>
       <c r="AT3">
-        <v>165.61109675354393</v>
+        <v>165.61109678438316</v>
       </c>
       <c r="AU3">
-        <v>214.71273825086035</v>
+        <v>214.71273826871166</v>
       </c>
       <c r="AV3">
-        <v>192.98172339375421</v>
+        <v>192.98172342076052</v>
       </c>
       <c r="AW3">
-        <v>157.46828804781526</v>
+        <v>157.46828807071097</v>
       </c>
       <c r="AX3">
-        <v>151.71107163515097</v>
+        <v>151.71107166015676</v>
       </c>
       <c r="AY3">
-        <v>169.62695433891375</v>
+        <v>169.62695437027253</v>
       </c>
     </row>
   </sheetData>
